--- a/posesiones/1486007.xlsx
+++ b/posesiones/1486007.xlsx
@@ -1829,10 +1829,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2023,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>27</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2126,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>24</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2323,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>31</v>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>14</v>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>11</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>7</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R23">
         <v>15</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>9</v>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3123,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R29">
         <v>21</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3367,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R34">
         <v>21</v>
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3564,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R38">
         <v>21</v>
@@ -3617,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R39">
         <v>19</v>
@@ -3670,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R40">
         <v>17</v>
@@ -3723,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R41">
         <v>15</v>
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R43">
         <v>4</v>
@@ -3876,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R44">
         <v>16</v>
@@ -3929,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R45">
         <v>19</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4123,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R50">
         <v>7</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4276,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R52">
         <v>6</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4379,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R54">
         <v>12</v>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4482,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R56">
         <v>8</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4629,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4679,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R60">
         <v>12</v>
@@ -4732,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R61">
         <v>13</v>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4876,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R67">
         <v>5</v>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5261,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R72">
         <v>14</v>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5408,7 +5408,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R75">
         <v>10</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5555,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5605,7 +5605,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R79">
         <v>23</v>
@@ -5658,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R80">
         <v>11</v>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5808,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R83">
         <v>24</v>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5999,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6049,7 +6049,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R88">
         <v>0</v>
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6152,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R90">
         <v>5</v>
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6252,7 +6252,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R92">
         <v>17</v>
@@ -6302,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6352,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R94">
         <v>21</v>
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6452,7 +6452,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R96">
         <v>16</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R98">
         <v>4</v>
@@ -6605,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R99">
         <v>21</v>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6708,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R101">
         <v>16</v>
@@ -6761,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6811,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R103">
         <v>10</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6914,7 +6914,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R105">
         <v>10</v>
@@ -6964,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7014,7 +7014,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R107">
         <v>4</v>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7114,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R109">
         <v>4</v>
@@ -7167,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7217,7 +7217,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R111">
         <v>15</v>
@@ -7270,7 +7270,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R112">
         <v>16</v>
@@ -7314,10 +7314,10 @@
         <v>1</v>
       </c>
       <c r="P113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7364,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7546,10 +7546,10 @@
         <v>1</v>
       </c>
       <c r="P118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R119">
         <v>16</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7696,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7790,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7887,7 +7887,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R125">
         <v>22</v>
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7987,7 +7987,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R127">
         <v>19</v>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8181,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8275,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8322,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8369,7 +8369,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8419,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8469,7 +8469,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R137">
         <v>22</v>
@@ -8519,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8660,7 +8660,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8710,7 +8710,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R142">
         <v>10</v>
@@ -8760,7 +8760,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8807,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8854,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8901,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9001,7 +9001,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R148">
         <v>25</v>
@@ -9054,7 +9054,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R149">
         <v>18</v>
@@ -9104,7 +9104,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R150">
         <v>28</v>
@@ -9154,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9201,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9295,7 +9295,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9345,7 +9345,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R155">
         <v>17</v>
@@ -9398,7 +9398,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R156">
         <v>16</v>
@@ -9451,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R158">
         <v>13</v>
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9595,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9645,7 +9645,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R161">
         <v>10</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9745,7 +9745,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R163">
         <v>4</v>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R164">
         <v>21</v>
@@ -9848,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9942,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9989,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10036,7 +10036,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10086,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10136,7 +10136,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R171">
         <v>20</v>
@@ -10189,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R172">
         <v>16</v>
@@ -10239,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10286,7 +10286,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10383,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10433,7 +10433,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R177">
         <v>19</v>
@@ -10486,7 +10486,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R178">
         <v>12</v>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R180">
         <v>11</v>
@@ -10642,7 +10642,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10692,7 +10692,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R182">
         <v>10</v>
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10789,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10836,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10886,7 +10886,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R186">
         <v>19</v>
@@ -10939,7 +10939,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10989,7 +10989,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R188">
         <v>22</v>
@@ -11042,7 +11042,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11089,7 +11089,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11142,7 +11142,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R191">
         <v>16</v>
@@ -11192,7 +11192,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11239,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11286,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11336,7 +11336,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R195">
         <v>13</v>
@@ -11386,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11430,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11480,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R198">
         <v>17</v>
@@ -11530,7 +11530,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11624,7 +11624,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11674,7 +11674,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R202">
         <v>0</v>
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11777,7 +11777,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R204">
         <v>14</v>
@@ -11827,7 +11827,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11874,7 +11874,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11921,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11968,7 +11968,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12015,7 +12015,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R210">
         <v>16</v>
@@ -12118,7 +12118,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R211">
         <v>14</v>
@@ -12168,7 +12168,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12215,7 +12215,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12262,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12309,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12356,7 +12356,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12406,7 +12406,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R217">
         <v>13</v>
@@ -12459,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12509,7 +12509,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R219">
         <v>19</v>
@@ -12562,7 +12562,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12612,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R221">
         <v>7</v>
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12715,7 +12715,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R223">
         <v>3</v>
@@ -12765,7 +12765,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12812,7 +12812,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12862,7 +12862,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R226">
         <v>13</v>
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12962,7 +12962,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13012,7 +13012,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13106,7 +13106,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13153,7 +13153,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13203,7 +13203,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R233">
         <v>18</v>
@@ -13253,7 +13253,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13300,7 +13300,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13344,7 +13344,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13394,7 +13394,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R237">
         <v>16</v>
@@ -13447,7 +13447,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R238">
         <v>16</v>
@@ -13500,7 +13500,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13550,7 +13550,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R240">
         <v>14</v>
@@ -13603,7 +13603,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13653,7 +13653,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R242">
         <v>20</v>
@@ -13709,7 +13709,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R243">
         <v>1</v>
@@ -13753,10 +13753,10 @@
         <v>1</v>
       </c>
       <c r="P244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q244">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13803,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13850,7 +13850,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13897,7 +13897,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13944,7 +13944,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13991,7 +13991,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14038,7 +14038,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14079,10 +14079,10 @@
         <v>1</v>
       </c>
       <c r="P251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q251">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14129,7 +14129,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14176,7 +14176,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14223,7 +14223,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14273,7 +14273,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R255">
         <v>16</v>
@@ -14326,7 +14326,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R256">
         <v>22</v>
@@ -14379,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14429,7 +14429,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R258">
         <v>16</v>
@@ -14482,7 +14482,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R259">
         <v>20</v>
@@ -14532,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14579,7 +14579,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14626,7 +14626,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R262">
         <v>28</v>
@@ -14679,7 +14679,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R263">
         <v>13</v>
@@ -14732,7 +14732,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R264">
         <v>23</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14835,7 +14835,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R266">
         <v>17</v>
@@ -14885,7 +14885,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14935,7 +14935,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14982,7 +14982,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15029,7 +15029,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15076,7 +15076,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15123,7 +15123,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15170,7 +15170,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15217,7 +15217,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15264,7 +15264,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15314,7 +15314,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R276">
         <v>29</v>
@@ -15364,7 +15364,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15414,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R278">
         <v>20</v>
@@ -15464,7 +15464,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15514,7 +15514,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15564,7 +15564,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R281">
         <v>21</v>
@@ -15617,7 +15617,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R282">
         <v>13</v>
@@ -15670,7 +15670,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R283">
         <v>13</v>
@@ -15720,7 +15720,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15770,7 +15770,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R285">
         <v>18</v>
@@ -15823,7 +15823,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15873,7 +15873,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R287">
         <v>3</v>
@@ -15923,7 +15923,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15973,7 +15973,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R289">
         <v>5</v>
@@ -16026,7 +16026,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16076,7 +16076,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R291">
         <v>19</v>
@@ -16126,7 +16126,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16173,7 +16173,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16220,7 +16220,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16267,7 +16267,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16317,7 +16317,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R296">
         <v>14</v>
@@ -16367,7 +16367,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16414,7 +16414,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16461,7 +16461,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16511,7 +16511,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16561,7 +16561,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R301">
         <v>30</v>
@@ -16614,7 +16614,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R302">
         <v>16</v>
@@ -16664,7 +16664,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16714,7 +16714,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R304">
         <v>8</v>
@@ -16764,7 +16764,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16808,7 +16808,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16855,7 +16855,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16902,7 +16902,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16952,7 +16952,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R309">
         <v>14</v>
@@ -17005,7 +17005,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R310">
         <v>29</v>
@@ -17058,7 +17058,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R311">
         <v>16</v>
@@ -17111,7 +17111,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R312">
         <v>12</v>
@@ -17164,7 +17164,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R313">
         <v>19</v>
@@ -17217,7 +17217,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17264,7 +17264,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17314,7 +17314,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17364,7 +17364,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R317">
         <v>25</v>
@@ -17417,7 +17417,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R318">
         <v>19</v>
@@ -17467,7 +17467,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17514,7 +17514,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17561,7 +17561,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17608,7 +17608,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17655,7 +17655,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17705,7 +17705,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R324">
         <v>17</v>
@@ -17758,7 +17758,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17808,7 +17808,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R326">
         <v>3</v>
@@ -17858,7 +17858,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17905,7 +17905,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17952,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18002,7 +18002,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18052,7 +18052,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R331">
         <v>12</v>
@@ -18102,7 +18102,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18149,7 +18149,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18196,7 +18196,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18243,7 +18243,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18290,7 +18290,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18337,7 +18337,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18384,7 +18384,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18431,7 +18431,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18475,7 +18475,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18525,7 +18525,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R341">
         <v>23</v>
@@ -18575,7 +18575,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18622,7 +18622,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18672,7 +18672,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R344">
         <v>0</v>
@@ -18725,7 +18725,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R345">
         <v>11</v>
@@ -18775,7 +18775,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18822,7 +18822,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18875,7 +18875,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R348">
         <v>12</v>
@@ -18925,7 +18925,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18972,7 +18972,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19022,7 +19022,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19069,7 +19069,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19116,7 +19116,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19213,7 +19213,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R355">
         <v>21</v>
@@ -19266,7 +19266,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R356">
         <v>0</v>
@@ -19310,10 +19310,10 @@
         <v>1</v>
       </c>
       <c r="P357" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q357">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19360,7 +19360,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19407,7 +19407,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19454,7 +19454,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19501,7 +19501,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19542,10 +19542,10 @@
         <v>1</v>
       </c>
       <c r="P362" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q362">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19595,7 +19595,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R363">
         <v>13</v>
@@ -19648,7 +19648,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19698,7 +19698,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R365">
         <v>15</v>
@@ -19748,7 +19748,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19795,7 +19795,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19842,7 +19842,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19892,7 +19892,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R369">
         <v>16</v>
@@ -19945,7 +19945,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19995,7 +19995,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R371">
         <v>13</v>
@@ -20045,7 +20045,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20092,7 +20092,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20139,7 +20139,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20186,7 +20186,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20233,7 +20233,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20280,7 +20280,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20330,7 +20330,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20380,7 +20380,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R379">
         <v>31</v>
@@ -20430,7 +20430,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20477,7 +20477,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20527,7 +20527,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R382">
         <v>24</v>
@@ -20577,7 +20577,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20627,7 +20627,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R384">
         <v>6</v>
@@ -20677,7 +20677,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20727,7 +20727,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R386">
         <v>21</v>
@@ -20780,7 +20780,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R387">
         <v>23</v>
@@ -20830,7 +20830,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20880,7 +20880,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20930,7 +20930,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R390">
         <v>27</v>
@@ -20980,7 +20980,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21027,7 +21027,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21074,7 +21074,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21121,7 +21121,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21168,7 +21168,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21215,7 +21215,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21262,7 +21262,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21309,7 +21309,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21359,7 +21359,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R399">
         <v>14</v>
@@ -21412,7 +21412,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21462,7 +21462,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R401">
         <v>18</v>
@@ -21512,7 +21512,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21559,7 +21559,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21606,7 +21606,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21656,7 +21656,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R405">
         <v>0</v>
@@ -21703,7 +21703,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21750,7 +21750,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21797,7 +21797,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21844,7 +21844,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21891,7 +21891,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21941,7 +21941,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R411">
         <v>28</v>
@@ -21994,7 +21994,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22044,7 +22044,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R413">
         <v>16</v>
@@ -22097,7 +22097,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R414">
         <v>13</v>
@@ -22150,7 +22150,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22200,7 +22200,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R416">
         <v>21</v>
@@ -22253,7 +22253,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22300,7 +22300,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22347,7 +22347,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22397,7 +22397,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22447,7 +22447,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R421">
         <v>17</v>
@@ -22500,7 +22500,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22550,7 +22550,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R423">
         <v>22</v>
@@ -22603,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22653,7 +22653,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R425">
         <v>8</v>
@@ -22700,7 +22700,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22800,7 +22800,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R428">
         <v>23</v>
@@ -22850,7 +22850,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22897,7 +22897,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22944,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22994,7 +22994,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R432">
         <v>15</v>
@@ -23044,7 +23044,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23091,7 +23091,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23138,7 +23138,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23188,7 +23188,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R436">
         <v>24</v>
@@ -23238,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23285,7 +23285,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23332,7 +23332,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23382,7 +23382,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R440">
         <v>25</v>
@@ -23435,7 +23435,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23529,7 +23529,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23626,7 +23626,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R445">
         <v>22</v>
@@ -23676,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23723,7 +23723,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23770,7 +23770,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23817,7 +23817,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23911,7 +23911,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23961,7 +23961,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R452">
         <v>9</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24058,7 +24058,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24105,7 +24105,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24152,7 +24152,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24199,7 +24199,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24246,7 +24246,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24296,7 +24296,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R459">
         <v>17</v>
@@ -24346,7 +24346,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24396,7 +24396,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24446,7 +24446,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R462">
         <v>18</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24549,7 +24549,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R464">
         <v>7</v>
@@ -24602,7 +24602,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R465">
         <v>22</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24702,7 +24702,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R467">
         <v>9</v>
@@ -24752,7 +24752,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24796,7 +24796,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24893,7 +24893,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24987,7 +24987,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25034,7 +25034,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25084,7 +25084,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R475">
         <v>3</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25181,7 +25181,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R477">
         <v>2</v>
@@ -25231,7 +25231,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25281,7 +25281,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25328,7 +25328,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25422,7 +25422,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25472,7 +25472,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R483">
         <v>11</v>
@@ -25522,7 +25522,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25619,7 +25619,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R486">
         <v>4</v>
@@ -25669,7 +25669,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25719,7 +25719,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R488">
         <v>3</v>
@@ -25772,7 +25772,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R489">
         <v>9</v>
@@ -25822,7 +25822,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25869,7 +25869,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25963,7 +25963,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26010,7 +26010,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26057,7 +26057,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26107,7 +26107,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R496">
         <v>5</v>
@@ -26160,7 +26160,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R497">
         <v>5</v>
@@ -26216,7 +26216,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R498">
         <v>0</v>
@@ -26260,10 +26260,10 @@
         <v>1</v>
       </c>
       <c r="P499" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q499">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26304,7 +26304,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
